--- a/data/springcloud-course/hr-config-server_structure.xlsx
+++ b/data/springcloud-course/hr-config-server_structure.xlsx
@@ -132,13 +132,13 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>passwordGitHub</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>usernameGitHub</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>passwordGitHub</t>
   </si>
   <si>
     <t>Source Class Name</t>
